--- a/download_file/마음손거래내역_1004테스트.xlsx
+++ b/download_file/마음손거래내역_1004테스트.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F223D-02E1-493B-9CF7-269BECB1D6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562ACF30-CF6B-4E53-BDBD-A0696F30B169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3945" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="30건1" sheetId="3" r:id="rId1"/>
-    <sheet name="16건" sheetId="2" r:id="rId2"/>
-    <sheet name="30건2" sheetId="4" r:id="rId3"/>
-    <sheet name="30건3" sheetId="5" r:id="rId4"/>
-    <sheet name="마음손거래내역_20230804025611" sheetId="1" r:id="rId5"/>
+    <sheet name="수입만테스트" sheetId="6" r:id="rId1"/>
+    <sheet name="30건1" sheetId="3" r:id="rId2"/>
+    <sheet name="16건" sheetId="2" r:id="rId3"/>
+    <sheet name="30건2" sheetId="4" r:id="rId4"/>
+    <sheet name="30건3" sheetId="5" r:id="rId5"/>
+    <sheet name="마음손거래내역_20230804025611" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'16건'!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">마음손거래내역_20230804025611!$A$1:$M$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'16건'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'30건1'!$A$1:$M$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">마음손거래내역_20230804025611!$A$1:$M$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="167">
   <si>
     <t>구분</t>
   </si>
@@ -1575,12 +1577,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B250323-1D48-4D41-B6F2-827EF863AA94}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5">
+        <v>30000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="5">
+        <v>237410</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5">
+        <v>427800</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>139470</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>427800</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="5">
+        <v>145890</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5">
+        <v>427800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="5">
+        <v>53240</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45203</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="5">
+        <v>15000000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AE36C6-C85B-4DC0-BB47-37700088E3D7}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4065,7 +4540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389D72D-098C-47BA-991B-256275409781}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -4736,7 +5211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873B6A2-79C8-426C-ACFF-81C53E6F320E}">
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -5952,7 +6427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DEE5B0-EFD1-4E30-9E76-51C422BC1192}">
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -7193,7 +7668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M76"/>
   <sheetViews>
